--- a/entropy_csv/test_12_8_2_entropy.xlsx
+++ b/entropy_csv/test_12_8_2_entropy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\entropy_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3E24D9-3571-4F74-B4E1-7D87B83AE6D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01132C9A-85E6-49A1-BDBF-EB67BB38233B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="6048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S212" sqref="S212"/>
+    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
